--- a/trash/props_with_no_key.xlsx
+++ b/trash/props_with_no_key.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>prop_nokey</t>
   </si>
@@ -31,10 +31,16 @@
     <t>partido</t>
   </si>
   <si>
+    <t>BANCADA-AL</t>
+  </si>
+  <si>
+    <t>BANCADA-MG</t>
+  </si>
+  <si>
     <t>MISAEL VARELLA</t>
   </si>
   <si>
-    <t xml:space="preserve">GILBERTO ABRAMO </t>
+    <t>GILBERTO ABRAMO</t>
   </si>
   <si>
     <t>EUCLYDES PETTERSEN</t>
@@ -43,7 +49,10 @@
     <t>AUREA CAROLINA</t>
   </si>
   <si>
-    <t xml:space="preserve">JULIO DELGADO </t>
+    <t>ANTONIO ANASTASIA</t>
+  </si>
+  <si>
+    <t>JULIO DELGADO</t>
   </si>
   <si>
     <t>EROS BIONDINI</t>
@@ -79,7 +88,7 @@
     <t>MARIO HERINGER</t>
   </si>
   <si>
-    <t xml:space="preserve">LUIS TIBE </t>
+    <t>LUIS TIBE</t>
   </si>
   <si>
     <t>LEONARDO MONTEIRO</t>
@@ -91,10 +100,16 @@
     <t>LUCAS GONZALEZ</t>
   </si>
   <si>
-    <t xml:space="preserve">VILSON DA FETAEMG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEWTON CARDOSO </t>
+    <t>VILSON DA FETAEMG</t>
+  </si>
+  <si>
+    <t>NEWTON CARDOSO</t>
+  </si>
+  <si>
+    <t>CARLOS VIANA</t>
+  </si>
+  <si>
+    <t>RODRIGO PACHECO</t>
   </si>
   <si>
     <t>ZE SILVA</t>
@@ -106,37 +121,46 @@
     <t>AECIO NEVES</t>
   </si>
   <si>
+    <t>DIMAS FABIANO</t>
+  </si>
+  <si>
     <t>CHARLES EVANGELISTA</t>
   </si>
   <si>
-    <t xml:space="preserve">ZE VITOR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELEGADO MARCELO FREITAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STEFANO AGUIAR </t>
+    <t>ZE VITOR</t>
+  </si>
+  <si>
+    <t>DELEGADO MARCELO FREITAS</t>
+  </si>
+  <si>
+    <t>STEFANO AGUIAR</t>
   </si>
   <si>
     <t>WELITON PRADO</t>
   </si>
   <si>
-    <t xml:space="preserve">FRANCO CARTAFINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAULO ABI ACKEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCELO ARO </t>
+    <t>FRANCO CARTAFINA</t>
+  </si>
+  <si>
+    <t>PAULO ABI ACKEL</t>
+  </si>
+  <si>
+    <t>MARCELO ARO</t>
   </si>
   <si>
     <t>ROGERIO CORREIA</t>
   </si>
   <si>
-    <t xml:space="preserve">PADRE JOAO </t>
-  </si>
-  <si>
-    <t>BANCADA SP</t>
+    <t>PADRE JOAO</t>
+  </si>
+  <si>
+    <t>BANCADA-SP</t>
+  </si>
+  <si>
+    <t>BANCADA-ES</t>
+  </si>
+  <si>
+    <t>NEUCIMAR FRAGA</t>
   </si>
   <si>
     <t>DEPA. LAURIETE</t>
@@ -145,94 +169,100 @@
     <t>AMARO NETO</t>
   </si>
   <si>
+    <t>EVAIR DE MELO</t>
+  </si>
+  <si>
     <t>DA VITORIA</t>
   </si>
   <si>
+    <t>BANCADA-MA</t>
+  </si>
+  <si>
     <t>GASTAO VIEIRA</t>
   </si>
   <si>
-    <t>BANCADA PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALICE PORTUGAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CELSO SABINO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONFUCIO MOURA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORONEL CHRISOSTOMO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIMAS FABIANO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDNA HENRIQUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELIAS VAZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXPEDITO NETTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABIO REIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAVIA ARRUDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAVIANO MELO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENERAL GIRAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOAO ROMA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE MEDEIROS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE NUNES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSIVALDO JP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABO JUNIO AMARAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUNIOR LOURENCO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEO DE BRITO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEUR LOMANTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCIANO BIVAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARA ROCHA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARX BELTRAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERPETUA ALMEIDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERGIO PETECAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SORAYA THRONICKE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ULDURICO JUNIOR </t>
+    <t>BANCADA-PA</t>
+  </si>
+  <si>
+    <t>ALICE PORTUGAL</t>
+  </si>
+  <si>
+    <t>CELSO SABINO</t>
+  </si>
+  <si>
+    <t>CONFUCIO MOURA</t>
+  </si>
+  <si>
+    <t>CORONEL CHRISOSTOMO</t>
+  </si>
+  <si>
+    <t>EDNA HENRIQUE</t>
+  </si>
+  <si>
+    <t>ELIAS VAZ</t>
+  </si>
+  <si>
+    <t>EXPEDITO NETTO</t>
+  </si>
+  <si>
+    <t>FABIO REIS</t>
+  </si>
+  <si>
+    <t>FLAVIA ARRUDA</t>
+  </si>
+  <si>
+    <t>FLAVIANO MELO</t>
+  </si>
+  <si>
+    <t>GENERAL GIRAO</t>
+  </si>
+  <si>
+    <t>JOAO ROMA</t>
+  </si>
+  <si>
+    <t>JOENIA WAPICHANA</t>
+  </si>
+  <si>
+    <t>JOSE MEDEIROS</t>
+  </si>
+  <si>
+    <t>JOSE NUNES</t>
+  </si>
+  <si>
+    <t>JOSIVALDO JP</t>
+  </si>
+  <si>
+    <t>CABO JUNIO AMARAL</t>
+  </si>
+  <si>
+    <t>JUNIOR LOURENCO</t>
+  </si>
+  <si>
+    <t>LEO DE BRITO</t>
+  </si>
+  <si>
+    <t>LEUR LOMANTO</t>
+  </si>
+  <si>
+    <t>LUCIANO BIVAR</t>
+  </si>
+  <si>
+    <t>MARA ROCHA</t>
+  </si>
+  <si>
+    <t>MARX BELTRAO</t>
+  </si>
+  <si>
+    <t>PERPETUA ALMEIDA</t>
+  </si>
+  <si>
+    <t>SERGIO PETECAO</t>
+  </si>
+  <si>
+    <t>SORAYA THRONICKE</t>
+  </si>
+  <si>
+    <t>ULDURICO JUNIOR</t>
   </si>
 </sst>
 </file>
@@ -590,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1157,6 +1187,86 @@
         <v>72</v>
       </c>
     </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trash/props_with_no_key.xlsx
+++ b/trash/props_with_no_key.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>prop_nokey</t>
   </si>
@@ -31,12 +31,6 @@
     <t>partido</t>
   </si>
   <si>
-    <t>BANCADA-AL</t>
-  </si>
-  <si>
-    <t>BANCADA-MG</t>
-  </si>
-  <si>
     <t>MISAEL VARELLA</t>
   </si>
   <si>
@@ -49,9 +43,6 @@
     <t>AUREA CAROLINA</t>
   </si>
   <si>
-    <t>ANTONIO ANASTASIA</t>
-  </si>
-  <si>
     <t>JULIO DELGADO</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>MARIO HERINGER</t>
   </si>
   <si>
-    <t>LUIS TIBE</t>
-  </si>
-  <si>
     <t>LEONARDO MONTEIRO</t>
   </si>
   <si>
@@ -106,12 +94,6 @@
     <t>NEWTON CARDOSO</t>
   </si>
   <si>
-    <t>CARLOS VIANA</t>
-  </si>
-  <si>
-    <t>RODRIGO PACHECO</t>
-  </si>
-  <si>
     <t>ZE SILVA</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t>AECIO NEVES</t>
   </si>
   <si>
-    <t>DIMAS FABIANO</t>
-  </si>
-  <si>
     <t>CHARLES EVANGELISTA</t>
   </si>
   <si>
@@ -154,115 +133,16 @@
     <t>PADRE JOAO</t>
   </si>
   <si>
-    <t>BANCADA-SP</t>
-  </si>
-  <si>
-    <t>BANCADA-ES</t>
-  </si>
-  <si>
-    <t>NEUCIMAR FRAGA</t>
-  </si>
-  <si>
     <t>DEPA. LAURIETE</t>
   </si>
   <si>
     <t>AMARO NETO</t>
   </si>
   <si>
-    <t>EVAIR DE MELO</t>
-  </si>
-  <si>
     <t>DA VITORIA</t>
   </si>
   <si>
-    <t>BANCADA-MA</t>
-  </si>
-  <si>
     <t>GASTAO VIEIRA</t>
-  </si>
-  <si>
-    <t>BANCADA-PA</t>
-  </si>
-  <si>
-    <t>ALICE PORTUGAL</t>
-  </si>
-  <si>
-    <t>CELSO SABINO</t>
-  </si>
-  <si>
-    <t>CONFUCIO MOURA</t>
-  </si>
-  <si>
-    <t>CORONEL CHRISOSTOMO</t>
-  </si>
-  <si>
-    <t>EDNA HENRIQUE</t>
-  </si>
-  <si>
-    <t>ELIAS VAZ</t>
-  </si>
-  <si>
-    <t>EXPEDITO NETTO</t>
-  </si>
-  <si>
-    <t>FABIO REIS</t>
-  </si>
-  <si>
-    <t>FLAVIA ARRUDA</t>
-  </si>
-  <si>
-    <t>FLAVIANO MELO</t>
-  </si>
-  <si>
-    <t>GENERAL GIRAO</t>
-  </si>
-  <si>
-    <t>JOAO ROMA</t>
-  </si>
-  <si>
-    <t>JOENIA WAPICHANA</t>
-  </si>
-  <si>
-    <t>JOSE MEDEIROS</t>
-  </si>
-  <si>
-    <t>JOSE NUNES</t>
-  </si>
-  <si>
-    <t>JOSIVALDO JP</t>
-  </si>
-  <si>
-    <t>CABO JUNIO AMARAL</t>
-  </si>
-  <si>
-    <t>JUNIOR LOURENCO</t>
-  </si>
-  <si>
-    <t>LEO DE BRITO</t>
-  </si>
-  <si>
-    <t>LEUR LOMANTO</t>
-  </si>
-  <si>
-    <t>LUCIANO BIVAR</t>
-  </si>
-  <si>
-    <t>MARA ROCHA</t>
-  </si>
-  <si>
-    <t>MARX BELTRAO</t>
-  </si>
-  <si>
-    <t>PERPETUA ALMEIDA</t>
-  </si>
-  <si>
-    <t>SERGIO PETECAO</t>
-  </si>
-  <si>
-    <t>SORAYA THRONICKE</t>
-  </si>
-  <si>
-    <t>ULDURICO JUNIOR</t>
   </si>
 </sst>
 </file>
@@ -620,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -947,326 +827,6 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>82</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trash/props_with_no_key.xlsx
+++ b/trash/props_with_no_key.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>prop_nokey</t>
   </si>
@@ -31,118 +31,1093 @@
     <t>partido</t>
   </si>
   <si>
+    <t>BANCADA-DE ALAGOAS</t>
+  </si>
+  <si>
+    <t>BANCADA-DE MINAS GERAIS</t>
+  </si>
+  <si>
+    <t>BANCADA-DE SAO PAULO</t>
+  </si>
+  <si>
+    <t>BANCADA-DO ESPIRITO SANTO</t>
+  </si>
+  <si>
+    <t>BANCADA-DO MARANHAO</t>
+  </si>
+  <si>
+    <t>BANCADA-DO PARA</t>
+  </si>
+  <si>
+    <t>ADOR CONFUCIO MOURA</t>
+  </si>
+  <si>
     <t>MISAEL VARELLA</t>
   </si>
   <si>
+    <t xml:space="preserve">GILBERTO ABRAMO </t>
+  </si>
+  <si>
+    <t>EUCLYDES PETTER</t>
+  </si>
+  <si>
+    <t>AUREA CAROLINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANTONIO ANASTASIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIO DELGADO </t>
+  </si>
+  <si>
+    <t>EROS BIONDINI</t>
+  </si>
+  <si>
+    <t>BILAC PINTO</t>
+  </si>
+  <si>
+    <t>EDUARDO BARBOSA</t>
+  </si>
+  <si>
+    <t>MAURO LOPES</t>
+  </si>
+  <si>
+    <t>ANDRE JANONES</t>
+  </si>
+  <si>
+    <t>PAULO GUEDES</t>
+  </si>
+  <si>
+    <t>SUBTENENTE GONZAGA</t>
+  </si>
+  <si>
+    <t>IGOR TIMO</t>
+  </si>
+  <si>
+    <t>PATRUS ANANIAS</t>
+  </si>
+  <si>
+    <t>FREDERICO</t>
+  </si>
+  <si>
+    <t>MARIO HERINGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS TIBE </t>
+  </si>
+  <si>
+    <t>LEONARDO MONTEIRO</t>
+  </si>
+  <si>
+    <t>CABO JUNIO AMARAL BANCADA</t>
+  </si>
+  <si>
+    <t>LUCAS GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILSON DA FETAEMG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEWTON CARDOSO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CARLOS VIANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RODRIGO PACHECO</t>
+  </si>
+  <si>
+    <t>ZE SILVA</t>
+  </si>
+  <si>
+    <t>LINCOLN PORTELA</t>
+  </si>
+  <si>
+    <t>AECIO NEVES</t>
+  </si>
+  <si>
+    <t>CHARLES EVANGELISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZE VITOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELEGADO MARCELO FREITAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEFANO AGUIAR </t>
+  </si>
+  <si>
+    <t>WELITON PRADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCO CARTAFINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAULO ABI ACKEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCELO ARO </t>
+  </si>
+  <si>
+    <t>ROGERIO CORREIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PADRE JOAO  </t>
+  </si>
+  <si>
+    <t>DEPA. LAURIETE</t>
+  </si>
+  <si>
+    <t>AMARO NETO</t>
+  </si>
+  <si>
+    <t>DA VITORIA</t>
+  </si>
+  <si>
+    <t>GASTAO VIEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALICE PORTUGAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELSO SABINO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFUCIO MOURA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORONEL CHRISOSTOMO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIMAS FABIANO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDNA HENRIQUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIAS VAZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPEDITO NETTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABIO REIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAVIA ARRUDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAVIANO MELO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENERAL GIRAO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOAO ROMA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE MEDEIROS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE NUNES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSIVALDO JP </t>
+  </si>
+  <si>
+    <t>CABO JUNIO AMARAL  INDIVIDUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUNIOR LOURENCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEO DE BRITO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEUR LOMANTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIANO BIVAR </t>
+  </si>
+  <si>
+    <t>LUIS TIBE  INDIVIDUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARA ROCHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARX BELTRAO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERPETUA ALMEIDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERGIO PETECAO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORAYA THRONICKE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ULDURICO JUNIOR </t>
+  </si>
+  <si>
+    <t>MIGRACAO</t>
+  </si>
+  <si>
+    <t>WI-FI NA PRACA  MINISTRO DAS COMUNICACOES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MINISTRO DAS COMUNICACOES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIL CUTRIM. </t>
+  </si>
+  <si>
+    <t>SOLICITACAOCELSO SABINO</t>
+  </si>
+  <si>
+    <t>CLEBER VERDE</t>
+  </si>
+  <si>
+    <t>CLEBER VERDE.</t>
+  </si>
+  <si>
+    <t>PARA OCLEBER VERDE</t>
+  </si>
+  <si>
+    <t>MINISTERIO DA JUSTICA.</t>
+  </si>
+  <si>
+    <t>FEITO PELAMARIANA CARVALHO.</t>
+  </si>
+  <si>
+    <t>FEITO PELAMARIANA CARVALHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEITO PELOCLEBER VERDE. </t>
+  </si>
+  <si>
+    <t>CENSIPAM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENSIPAM. </t>
+  </si>
+  <si>
+    <t>CENSIPAN</t>
+  </si>
+  <si>
+    <t>MINISTERIO DAS COMUNICACOES.</t>
+  </si>
+  <si>
+    <t>ADOR CIRO NIGUEIRA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADOR CIRO NOGUEIRA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINISTERIO DAS COMUNICACOES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEITO PELAPERPETUA ALMEIDA. </t>
+  </si>
+  <si>
+    <t>FEITO PELOCELSO SABINO.</t>
+  </si>
+  <si>
+    <t>FEITO PELOCELSO SABINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEITO PELOCELSO SABINO. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEITO PELOVICENTINHO JUNIOR </t>
+  </si>
+  <si>
+    <t>FEITO PELOCLEBER VERDE</t>
+  </si>
+  <si>
+    <t>FEITO PELOCLEBER VERDE.</t>
+  </si>
+  <si>
+    <t>CIDADANIA</t>
+  </si>
+  <si>
+    <t>FEITO PELA CIDADANIA</t>
+  </si>
+  <si>
+    <t>PELA CIDADANIA</t>
+  </si>
+  <si>
+    <t>PROJETO WI-FI NA PRACA PARA ATENDIMENTO DA COMUNIDADE LOCAL.</t>
+  </si>
+  <si>
+    <t>DOEDUARDO BRAIDE DA BANCADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOJOSE MEDEIROS </t>
+  </si>
+  <si>
+    <t>DOJOSE MEDEIROS.</t>
+  </si>
+  <si>
+    <t>DOEDUARDO BRAIDE DA BANCADA-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOEDUARDO BRAIDE </t>
+  </si>
+  <si>
+    <t>DOJOSE MEDEIROS</t>
+  </si>
+  <si>
+    <t>DOEDUARDO BRAIDE.</t>
+  </si>
+  <si>
+    <t>WLADIMIR GAROTINHO</t>
+  </si>
+  <si>
+    <t>WI-FI NA PRACA</t>
+  </si>
+  <si>
+    <t>MINICOM</t>
+  </si>
+  <si>
+    <t>ADORA ELIZIANE GAMA</t>
+  </si>
+  <si>
+    <t>PARLAMENTAR</t>
+  </si>
+  <si>
+    <t>ASP</t>
+  </si>
+  <si>
+    <t>DOGIL CUTRIM.</t>
+  </si>
+  <si>
+    <t>MINICON</t>
+  </si>
+  <si>
+    <t>DOJOAQUIM PASSARINHO</t>
+  </si>
+  <si>
+    <t>JOAQUIM PASSARINHO</t>
+  </si>
+  <si>
+    <t>SESAI</t>
+  </si>
+  <si>
+    <t>DOGIL CUTRIM</t>
+  </si>
+  <si>
+    <t>DOJOAO DANIEL</t>
+  </si>
+  <si>
+    <t>DAMARIANA CARVALHO</t>
+  </si>
+  <si>
+    <t>SESAI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MINISTERIO DA SAUDE</t>
+  </si>
+  <si>
+    <t>MMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INTERNET</t>
+  </si>
+  <si>
+    <t>DOEVAIR DE MELO.</t>
+  </si>
+  <si>
+    <t>DOTORINO MARQUES</t>
+  </si>
+  <si>
+    <t>SOLICITACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMIZADE</t>
+  </si>
+  <si>
+    <t>INTERNET SOLICITADA</t>
+  </si>
+  <si>
+    <t>SOCILITACAO DE INTERNET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOTORINO MARQUES </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INTENET</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INTERNET </t>
+  </si>
+  <si>
+    <t>DOEVAIR DE MELO</t>
+  </si>
+  <si>
+    <t>DOEVAIR DE MELLO.</t>
+  </si>
+  <si>
+    <t>DOEVAIR DE MELO, O PONTO MUDOU DE MUNICIPIO,POR ISSO ESTAMOS ALTERARANDO.E-MAIL NO DIA 01-03-2021</t>
+  </si>
+  <si>
+    <t>DOEVAIR DE MELO, O PONTO MUDOU DE MUNICIPIO, POR ISSO ESTAMOS ALTERARANDO.E-MAIL NO DIA 01-03-2021</t>
+  </si>
+  <si>
+    <t>DE. EVAIR DE MELO.</t>
+  </si>
+  <si>
+    <t>DOEVAIR DE MELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONTO GESAC </t>
+  </si>
+  <si>
+    <t>DOCELSO SABINO.</t>
+  </si>
+  <si>
+    <t>DOJOAO DANIEL.</t>
+  </si>
+  <si>
+    <t>DOSERGIO SOUZA.</t>
+  </si>
+  <si>
+    <t>MINFRA</t>
+  </si>
+  <si>
+    <t>DOSIDNEY LEITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MINISTERIO DA SAUDE PARA AJUDAR OS SERVICOS DURANTE A PANDEMIA DE COVID-19.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MINISTERIO DA SAUDE PARA AJUDAR NOS SERVICOS DURANTE A PANDEMIA DE COVID-19.</t>
+  </si>
+  <si>
+    <t>GABINETE DO MINISTRO.</t>
+  </si>
+  <si>
+    <t>RECURSO COVID.</t>
+  </si>
+  <si>
+    <t>PONTO SESAI.</t>
+  </si>
+  <si>
+    <t>MINISTRO</t>
+  </si>
+  <si>
+    <t>ATENDIMENTO EMERGENCIAL AO COVID.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATENDIMENTO EMERGENCIAL COVID. </t>
+  </si>
+  <si>
+    <t>VIA GABINETE DO MINSITRO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA GABINETE DO MINISTRO. </t>
+  </si>
+  <si>
+    <t>VIA GABINETE DO MINISTRO.</t>
+  </si>
+  <si>
+    <t>ADOR WEVERTON.</t>
+  </si>
+  <si>
+    <t>ENCAMINHADA VAI GABINETE DO MINISTRO.</t>
+  </si>
+  <si>
+    <t>ENCAMINHADA VIA GABINETE DO MINISTRO.</t>
+  </si>
+  <si>
+    <t>ENCAMINHA VAI GABINETE DO MINISTRO.</t>
+  </si>
+  <si>
+    <t>DOMARCIO JERRY.</t>
+  </si>
+  <si>
+    <t>SERGIO SOUZA</t>
+  </si>
+  <si>
+    <t>JAQUELINE CASSOL.</t>
+  </si>
+  <si>
+    <t>MINISTERIO DA SAUDE.</t>
+  </si>
+  <si>
+    <t>CENSIPAM PELO E-MAIL DO DIA 10/02/2021</t>
+  </si>
+  <si>
+    <t>PREFEITO MUNICIPAL IVANILDO FERREIRA.</t>
+  </si>
+  <si>
+    <t>PREFEITO MUNICIPAL JOAO MARIA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFEITO MUNICIPAL MIGUEL CABRAL </t>
+  </si>
+  <si>
+    <t>PREFEITO MUNICIPAL JOAO BASILIO.</t>
+  </si>
+  <si>
+    <t>PREFEITO MUNICIPAL ALCELIO FERNANDES.</t>
+  </si>
+  <si>
+    <t>PREFEITO MUNICIPAL MIGUEL CABRAL</t>
+  </si>
+  <si>
+    <t>PREFEITO MUNICIPAL UADY ANTONIO.</t>
+  </si>
+  <si>
+    <t>PREFEITO MUNICIPAL JOSE AMAZAN.</t>
+  </si>
+  <si>
+    <t>PREFEITA MUNICIPAL JUSSARA SALES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFEITA MUNICIPAL JUSSARA SALES. </t>
+  </si>
+  <si>
+    <t>PREFEITO MUNICIPAL JOSE ARNOR.</t>
+  </si>
+  <si>
+    <t>PREFEITO MUNICIPAL JOSE AMAZAN</t>
+  </si>
+  <si>
+    <t>PREFEITO MUNICIPAL JOSE ANTONIO.</t>
+  </si>
+  <si>
+    <t>PREFEITO MUNICIPAL JOSE AIRTON.</t>
+  </si>
+  <si>
+    <t>PREFEITA MUNICIPAL MARIA DIVANIZE.</t>
+  </si>
+  <si>
+    <t>PREFEITO MUNICIPAL ARIOSVALDO BANDEIRA.</t>
+  </si>
+  <si>
+    <t>PREFEITO MUNICIPAL ROGERIO SOARES.</t>
+  </si>
+  <si>
+    <t>PREFEITO MUNICIPAL FERNANDO ANTONIO.</t>
+  </si>
+  <si>
+    <t>PREFEITO MUNICIPAL VALDEREDO BERTOLDO.</t>
+  </si>
+  <si>
+    <t>PREFEITO MUNICIPAL CARLOS ANDRE.</t>
+  </si>
+  <si>
+    <t>PREFEITA MUNICIPAL LARISSA LISIANE.</t>
+  </si>
+  <si>
+    <t>RECURSO COVID-19</t>
+  </si>
+  <si>
+    <t>ATENDIMENTO EMERGENCIAL COVID.</t>
+  </si>
+  <si>
+    <t>COVID</t>
+  </si>
+  <si>
+    <t>CENSIPAM NO E-MAIL DO DIA 10/03/2021</t>
+  </si>
+  <si>
+    <t>MAPA.</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE AUGUSTO SEVERO/RN.</t>
+  </si>
+  <si>
+    <t>ANDRE DE PAULA</t>
+  </si>
+  <si>
+    <t>STEFANO AGUIAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUGO LEAL </t>
+  </si>
+  <si>
+    <t>RICARDO GUIDI</t>
+  </si>
+  <si>
+    <t>JUNIOR FERRARI</t>
+  </si>
+  <si>
+    <t>FRANCISCO JR</t>
+  </si>
+  <si>
+    <t>OTTO ALENCAR FILHO</t>
+  </si>
+  <si>
+    <t>ALEXANDRE SERFIOTIS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MARCO BERTAIOLLI  -5919</t>
+  </si>
+  <si>
+    <t>JUNIOR FERRARI  -5919</t>
+  </si>
+  <si>
+    <t>MARCO BERTAIOLLI  -5401</t>
+  </si>
+  <si>
+    <t>JULIO CESAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIO CESAR </t>
+  </si>
+  <si>
+    <t>HAROLDO CARHEDRAL</t>
+  </si>
+  <si>
+    <t>FABIO TRAD</t>
+  </si>
+  <si>
+    <t>FABIO MITIDIERI</t>
+  </si>
+  <si>
+    <t>CEZINHA DE MADUREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRE DE PAULA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDRE SERFIOTIS </t>
+  </si>
+  <si>
+    <t>REINHOLD STEPHANES  -5221</t>
+  </si>
+  <si>
+    <t>RICARDO GUIDI  -5407</t>
+  </si>
+  <si>
+    <t>PAULO MAGALHAES  -5903</t>
+  </si>
+  <si>
+    <t>FRANCISCO JUNIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEUCIMAR FRAGA </t>
+  </si>
+  <si>
+    <t>RIO GRANDE DO NORTE.</t>
+  </si>
+  <si>
+    <t>PEDIDOS DO RIO GRANDE DO NORTE.</t>
+  </si>
+  <si>
+    <t>DONEUCIMAR FRAGA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDOS DO RIO GRANDE DO NORTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIO GRANDE NORTE </t>
+  </si>
+  <si>
+    <t>HUGO LEAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDILAZIO JUNIOR </t>
+  </si>
+  <si>
+    <t>EDILAZIO JUNIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDOS DO RIO GRANDE NORTE </t>
+  </si>
+  <si>
+    <t>DIEGO ANDRADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEGO ANDRADE </t>
+  </si>
+  <si>
+    <t>ANTONIO BRITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTONIO BRITO </t>
+  </si>
+  <si>
+    <t>DOVERMELHO.</t>
+  </si>
+  <si>
+    <t>DOWLADIMIR GAROTINHO.</t>
+  </si>
+  <si>
+    <t>DOSIDNEY LEITE.</t>
+  </si>
+  <si>
+    <t>DOSERGIO BRITO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIO GRANDE DO NORTE </t>
+  </si>
+  <si>
+    <t>DESERGIO BRITO.</t>
+  </si>
+  <si>
+    <t>DODARCI DE MATOS PSD.</t>
+  </si>
+  <si>
+    <t>DODOMINGOS NETO PSD.</t>
+  </si>
+  <si>
+    <t>DODOMINGOS NETO PSD</t>
+  </si>
+  <si>
+    <t>DODELEGADO EDER MAURO PSD</t>
+  </si>
+  <si>
+    <t>DOEDER MAURO PSD.</t>
+  </si>
+  <si>
+    <t>DOPAULO MAGALHAES PSD</t>
+  </si>
+  <si>
+    <t>PRESIDENTE JOSE JACIEL ALMEIDA DA SILVA.</t>
+  </si>
+  <si>
+    <t>DOSARGENTO FAHUR.</t>
+  </si>
+  <si>
+    <t>DONEY LEPREVOST.</t>
+  </si>
+  <si>
+    <t>DOCHARLES FERNANDES.</t>
+  </si>
+  <si>
+    <t>DOPEDRO AUGUSTO.</t>
+  </si>
+  <si>
+    <t>DOEXPEDITO NETTO.</t>
+  </si>
+  <si>
+    <t>ESTADO DE RIO GRANDE DO NORTE.</t>
+  </si>
+  <si>
+    <t>ESTADO DO RIO GRANDE DO NORTE.</t>
+  </si>
+  <si>
+    <t>EVAIR DE MELO.</t>
+  </si>
+  <si>
+    <t>DOREINHOLD STEPHANES.</t>
+  </si>
+  <si>
+    <t>DOMISAEL VARELLA.</t>
+  </si>
+  <si>
+    <t>DOJOAQUIM PASSARINHO.</t>
+  </si>
+  <si>
+    <t>DAFLODELIS.</t>
+  </si>
+  <si>
+    <t>DODOMINGOS NETO.</t>
+  </si>
+  <si>
+    <t>MINISTRO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINISTRO. </t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO AUGUSTO PALARETI </t>
+  </si>
+  <si>
+    <t>SEBRAE</t>
+  </si>
+  <si>
+    <t>BIRA DO PINDARE</t>
+  </si>
+  <si>
+    <t>SERGIO SOUSA  COMISSAO</t>
+  </si>
+  <si>
+    <t>SERGIO SOUSA</t>
+  </si>
+  <si>
+    <t>MINISTRO DAS COMUNICACOES</t>
+  </si>
+  <si>
+    <t>PREFEITO CLETSON RIVALDO</t>
+  </si>
+  <si>
+    <t>SERGIO SOUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PONTO FOI  MJ E ESTA SUBSTITUINDO O PP 57202, QUE FOI DESATIVADO. </t>
+  </si>
+  <si>
+    <t>PONTO WI-FI BRASIL SOLICITADO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINISTERIO DA JUSTICA </t>
+  </si>
+  <si>
+    <t>MINISTERIO DA JUSTILA</t>
+  </si>
+  <si>
+    <t>MINISTERIO DE JUSTICA</t>
+  </si>
+  <si>
+    <t>PREFEITA MUNICIPAL ANDREZZA BRASIL SOUTO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAJOENIA WAPCHAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PELAJOENIA WAPCHAN </t>
+  </si>
+  <si>
+    <t>WIFI BRASIL MINISTERIO DAS COMUNICACOES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINISTERIO DA COMUNICACOES </t>
+  </si>
+  <si>
+    <t>DR. FREDERICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGOR TIMO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMO IGOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARDO BARBOSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BETO ROSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEUR  LOMANTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRE JANONES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JANONES </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GABINETE DO MINISTRO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MCOM</t>
+  </si>
+  <si>
+    <t>MCOM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADOR CONFUCIO MOURA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADOR CONFUCIO  MOURA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADOR CONFUNCIO MOURA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GABINETE DO MINISTRO. </t>
+  </si>
+  <si>
+    <t>EROS  BIONDINI</t>
+  </si>
+  <si>
+    <t>DEP EVAIR DE MELO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAIR DE MELO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOSILAS CAMARA </t>
+  </si>
+  <si>
+    <t>FAVIA ARRUDA</t>
+  </si>
+  <si>
+    <t>ADOR RODRIGO CUNHA</t>
+  </si>
+  <si>
+    <t>ADOR RODRIGO CUNHA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADOR RODRIGO CUNHA </t>
+  </si>
+  <si>
+    <t>ADOR RODRIGO CUNHAADOR RODRIGO CUNHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBSTITUICAO POR OUTRO PONTO DO MEC QUE FOI CANCELADO. </t>
+  </si>
+  <si>
+    <t>MEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MINISTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOENIA WAPICHANA </t>
+  </si>
+  <si>
+    <t>ADOR CARLOS VIANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADOR CARLOS VIANA </t>
+  </si>
+  <si>
+    <t>EMENDA PARLAMENTAR</t>
+  </si>
+  <si>
+    <t>MARA ROCHA.</t>
+  </si>
+  <si>
+    <t>SOLICITACAOEVAIR DE MELO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAPA </t>
+  </si>
+  <si>
+    <t>ADOR RODRIGO PACHECO</t>
+  </si>
+  <si>
+    <t>VEREADORA BEATRIZ RODRIGUES DA SILVA</t>
+  </si>
+  <si>
+    <t>CARLOS JORDY</t>
+  </si>
+  <si>
+    <t>ADOR ANTONIO ANASTASIA</t>
+  </si>
+  <si>
+    <t>ADORA SORAYA THRONICKE</t>
+  </si>
+  <si>
+    <t>ADOR SERGIO PETECAO</t>
+  </si>
+  <si>
+    <t>AMARO  NETO</t>
+  </si>
+  <si>
+    <t>DARCIOVIEIRA1810@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>VILSON DA FETAEMG</t>
+  </si>
+  <si>
+    <t>JULIO DELGADO</t>
+  </si>
+  <si>
+    <t>NEWTON CARDOSO</t>
+  </si>
+  <si>
+    <t>CHALLES EVANGELISTA</t>
+  </si>
+  <si>
+    <t>ZE VITOR</t>
+  </si>
+  <si>
+    <t>PAULO ABI</t>
+  </si>
+  <si>
+    <t>NAPOLEBERTOADV@HOTMAIL.COM</t>
+  </si>
+  <si>
     <t>GILBERTO ABRAMO</t>
   </si>
   <si>
-    <t>EUCLYDES PETTERSEN</t>
-  </si>
-  <si>
-    <t>AUREA CAROLINA</t>
-  </si>
-  <si>
-    <t>JULIO DELGADO</t>
-  </si>
-  <si>
-    <t>EROS BIONDINI</t>
-  </si>
-  <si>
-    <t>BILAC PINTO</t>
-  </si>
-  <si>
-    <t>EDUARDO BARBOSA</t>
-  </si>
-  <si>
-    <t>MAURO LOPES</t>
-  </si>
-  <si>
-    <t>ANDRE JANONES</t>
-  </si>
-  <si>
-    <t>PAULO GUEDES</t>
-  </si>
-  <si>
-    <t>SUBTENENTE GONZAGA</t>
-  </si>
-  <si>
-    <t>IGOR TIMO</t>
-  </si>
-  <si>
-    <t>PATRUS ANANIAS</t>
-  </si>
-  <si>
-    <t>FREDERICO</t>
-  </si>
-  <si>
-    <t>MARIO HERINGER</t>
-  </si>
-  <si>
-    <t>LEONARDO MONTEIRO</t>
-  </si>
-  <si>
-    <t>CABO JUNIO AMARAL BANCADA</t>
-  </si>
-  <si>
-    <t>LUCAS GONZALEZ</t>
-  </si>
-  <si>
-    <t>VILSON DA FETAEMG</t>
-  </si>
-  <si>
-    <t>NEWTON CARDOSO</t>
-  </si>
-  <si>
-    <t>ZE SILVA</t>
-  </si>
-  <si>
-    <t>LINCOLN PORTELA</t>
-  </si>
-  <si>
-    <t>AECIO NEVES</t>
-  </si>
-  <si>
-    <t>CHARLES EVANGELISTA</t>
-  </si>
-  <si>
-    <t>ZE VITOR</t>
-  </si>
-  <si>
     <t>DELEGADO MARCELO FREITAS</t>
   </si>
   <si>
-    <t>STEFANO AGUIAR</t>
-  </si>
-  <si>
-    <t>WELITON PRADO</t>
-  </si>
-  <si>
-    <t>FRANCO CARTAFINA</t>
-  </si>
-  <si>
-    <t>PAULO ABI ACKEL</t>
+    <t xml:space="preserve">CENSIPAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA VITORIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP. FEDERAL DA VITORIA </t>
   </si>
   <si>
     <t>MARCELO ARO</t>
   </si>
   <si>
-    <t>ROGERIO CORREIA</t>
-  </si>
-  <si>
-    <t>PADRE JOAO</t>
-  </si>
-  <si>
-    <t>DEPA. LAURIETE</t>
-  </si>
-  <si>
-    <t>AMARO NETO</t>
-  </si>
-  <si>
-    <t>DA VITORIA</t>
-  </si>
-  <si>
-    <t>GASTAO VIEIRA</t>
+    <t>DEP FEDERAL MARCELO ARO</t>
+  </si>
+  <si>
+    <t>LAURIETE</t>
+  </si>
+  <si>
+    <t>DEP FEDERAL LAURIETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILAS CAMARA </t>
+  </si>
+  <si>
+    <t>MARCO BERTAIOLLI</t>
+  </si>
+  <si>
+    <t>CABO JUNIOR AMARAL</t>
+  </si>
+  <si>
+    <t>SILAS CAMARA.</t>
+  </si>
+  <si>
+    <t>FRANCO CATARFINA</t>
+  </si>
+  <si>
+    <t>LUISA CANZIANI</t>
+  </si>
+  <si>
+    <t>INSTITUICAO JA ERA ATENDIDA MAS MUDOU DE MUNICIPIO E PRECISA DE NOVA INSTALACAO.</t>
+  </si>
+  <si>
+    <t>DAIANNE.PEREIRA@FUNAI.GOV.BR</t>
+  </si>
+  <si>
+    <t>CARLA DICKSON</t>
+  </si>
+  <si>
+    <t>GABINETE DO MINISTRO</t>
+  </si>
+  <si>
+    <t>FRED COSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINISTRO DAS COMUNICACOES </t>
+  </si>
+  <si>
+    <t>MINISTRO DA COMUNICACAO</t>
+  </si>
+  <si>
+    <t>DR. FREDERICO.</t>
+  </si>
+  <si>
+    <t>BANCADA-MG.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINISTERIO DAS COMUNICACOES. </t>
+  </si>
+  <si>
+    <t>PADRE VALDO  OMENA</t>
+  </si>
+  <si>
+    <t>DILMATEMATICO@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>CARLA.GUAITANELE@ICMBIO.GOV.BR</t>
+  </si>
+  <si>
+    <t>PERPETUA ALMEIDAPERPETUA ALMEIDA</t>
   </si>
 </sst>
 </file>
@@ -500,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -827,6 +1802,2611 @@
         <v>42</v>
       </c>
     </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>367</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trash/props_with_no_key.xlsx
+++ b/trash/props_with_no_key.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t>prop_nokey</t>
   </si>
@@ -31,22 +31,22 @@
     <t>partido</t>
   </si>
   <si>
-    <t>BANCADA-DE ALAGOAS</t>
-  </si>
-  <si>
-    <t>BANCADA-DE MINAS GERAIS</t>
-  </si>
-  <si>
-    <t>BANCADA-DE SAO PAULO</t>
-  </si>
-  <si>
-    <t>BANCADA-DO ESPIRITO SANTO</t>
-  </si>
-  <si>
-    <t>BANCADA-DO MARANHAO</t>
-  </si>
-  <si>
-    <t>BANCADA-DO PARA</t>
+    <t>BANCADA-ALAGOAS</t>
+  </si>
+  <si>
+    <t>BANCADA-MINAS GERAIS</t>
+  </si>
+  <si>
+    <t>BANCADA-SAO PAULO</t>
+  </si>
+  <si>
+    <t>BANCADA-ESPIRITO SANTO</t>
+  </si>
+  <si>
+    <t>BANCADA-MARANHAO</t>
+  </si>
+  <si>
+    <t>BANCADA-PARA</t>
   </si>
   <si>
     <t>ADOR CONFUCIO MOURA</t>
@@ -55,7 +55,7 @@
     <t>MISAEL VARELLA</t>
   </si>
   <si>
-    <t xml:space="preserve">GILBERTO ABRAMO </t>
+    <t>GILBERTO ABRAMO</t>
   </si>
   <si>
     <t>EUCLYDES PETTER</t>
@@ -64,10 +64,7 @@
     <t>AUREA CAROLINA</t>
   </si>
   <si>
-    <t xml:space="preserve"> ANTONIO ANASTASIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JULIO DELGADO </t>
+    <t>JULIO DELGADO</t>
   </si>
   <si>
     <t>EROS BIONDINI</t>
@@ -103,9 +100,6 @@
     <t>MARIO HERINGER</t>
   </si>
   <si>
-    <t xml:space="preserve">LUIS TIBE </t>
-  </si>
-  <si>
     <t>LEONARDO MONTEIRO</t>
   </si>
   <si>
@@ -115,16 +109,10 @@
     <t>LUCAS GONZALEZ</t>
   </si>
   <si>
-    <t xml:space="preserve">VILSON DA FETAEMG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEWTON CARDOSO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CARLOS VIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RODRIGO PACHECO</t>
+    <t>VILSON DA FETAEMG</t>
+  </si>
+  <si>
+    <t>NEWTON CARDOSO</t>
   </si>
   <si>
     <t>ZE SILVA</t>
@@ -139,34 +127,34 @@
     <t>CHARLES EVANGELISTA</t>
   </si>
   <si>
-    <t xml:space="preserve">ZE VITOR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELEGADO MARCELO FREITAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STEFANO AGUIAR </t>
+    <t>ZE VITOR</t>
+  </si>
+  <si>
+    <t>DELEGADO MARCELO FREITAS</t>
+  </si>
+  <si>
+    <t>STEFANO AGUIAR</t>
   </si>
   <si>
     <t>WELITON PRADO</t>
   </si>
   <si>
-    <t xml:space="preserve">FRANCO CARTAFINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAULO ABI ACKEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCELO ARO </t>
+    <t>FRANCO CARTAFINA</t>
+  </si>
+  <si>
+    <t>PAULO ABI ACKEL</t>
+  </si>
+  <si>
+    <t>MARCELO ARO</t>
   </si>
   <si>
     <t>ROGERIO CORREIA</t>
   </si>
   <si>
-    <t xml:space="preserve">PADRE JOAO  </t>
-  </si>
-  <si>
-    <t>DEPA. LAURIETE</t>
+    <t>PADRE JOAO</t>
+  </si>
+  <si>
+    <t>LAURIETE</t>
   </si>
   <si>
     <t>AMARO NETO</t>
@@ -178,103 +166,22 @@
     <t>GASTAO VIEIRA</t>
   </si>
   <si>
-    <t xml:space="preserve">ALICE PORTUGAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CELSO SABINO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONFUCIO MOURA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORONEL CHRISOSTOMO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIMAS FABIANO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDNA HENRIQUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELIAS VAZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXPEDITO NETTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABIO REIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAVIA ARRUDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAVIANO MELO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENERAL GIRAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOAO ROMA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE MEDEIROS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE NUNES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSIVALDO JP </t>
-  </si>
-  <si>
     <t>CABO JUNIO AMARAL  INDIVIDUAL</t>
   </si>
   <si>
-    <t xml:space="preserve">JUNIOR LOURENCO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEO DE BRITO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEUR LOMANTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCIANO BIVAR </t>
-  </si>
-  <si>
     <t>LUIS TIBE  INDIVIDUAL</t>
   </si>
   <si>
-    <t xml:space="preserve">MARA ROCHA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARX BELTRAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERPETUA ALMEIDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERGIO PETECAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SORAYA THRONICKE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ULDURICO JUNIOR </t>
-  </si>
-  <si>
     <t>MIGRACAO</t>
   </si>
   <si>
-    <t>WI-FI NA PRACA  MINISTRO DAS COMUNICACOES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MINISTRO DAS COMUNICACOES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIL CUTRIM. </t>
-  </si>
-  <si>
-    <t>SOLICITACAOCELSO SABINO</t>
+    <t>WI-FI NA MINISTRO DAS COMUNICACOES</t>
+  </si>
+  <si>
+    <t>MINISTRO DAS COMUNICACOES</t>
+  </si>
+  <si>
+    <t>GIL CUTRIM.</t>
   </si>
   <si>
     <t>CLEBER VERDE</t>
@@ -283,27 +190,21 @@
     <t>CLEBER VERDE.</t>
   </si>
   <si>
-    <t>PARA OCLEBER VERDE</t>
+    <t>OCLEBER VERDE</t>
   </si>
   <si>
     <t>MINISTERIO DA JUSTICA.</t>
   </si>
   <si>
-    <t>FEITO PELAMARIANA CARVALHO.</t>
-  </si>
-  <si>
-    <t>FEITO PELAMARIANA CARVALHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEITO PELOCLEBER VERDE. </t>
+    <t>MARIANA CARVALHO.</t>
+  </si>
+  <si>
+    <t>MARIANA CARVALHO</t>
   </si>
   <si>
     <t>CENSIPAM.</t>
   </si>
   <si>
-    <t xml:space="preserve">CENSIPAM. </t>
-  </si>
-  <si>
     <t>CENSIPAN</t>
   </si>
   <si>
@@ -313,31 +214,13 @@
     <t>ADOR CIRO NIGUEIRA.</t>
   </si>
   <si>
-    <t xml:space="preserve">ADOR CIRO NOGUEIRA. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINISTERIO DAS COMUNICACOES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEITO PELAPERPETUA ALMEIDA. </t>
-  </si>
-  <si>
-    <t>FEITO PELOCELSO SABINO.</t>
-  </si>
-  <si>
-    <t>FEITO PELOCELSO SABINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEITO PELOCELSO SABINO. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEITO PELOVICENTINHO JUNIOR </t>
-  </si>
-  <si>
-    <t>FEITO PELOCLEBER VERDE</t>
-  </si>
-  <si>
-    <t>FEITO PELOCLEBER VERDE.</t>
+    <t>ADOR CIRO NOGUEIRA.</t>
+  </si>
+  <si>
+    <t>PERPETUA ALMEIDA.</t>
+  </si>
+  <si>
+    <t>CELSO SABINO.</t>
   </si>
   <si>
     <t>CIDADANIA</t>
@@ -346,31 +229,16 @@
     <t>FEITO PELA CIDADANIA</t>
   </si>
   <si>
-    <t>PELA CIDADANIA</t>
-  </si>
-  <si>
-    <t>PROJETO WI-FI NA PRACA PARA ATENDIMENTO DA COMUNIDADE LOCAL.</t>
-  </si>
-  <si>
-    <t>DOEDUARDO BRAIDE DA BANCADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOJOSE MEDEIROS </t>
-  </si>
-  <si>
-    <t>DOJOSE MEDEIROS.</t>
-  </si>
-  <si>
-    <t>DOEDUARDO BRAIDE DA BANCADA-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOEDUARDO BRAIDE </t>
-  </si>
-  <si>
-    <t>DOJOSE MEDEIROS</t>
-  </si>
-  <si>
-    <t>DOEDUARDO BRAIDE.</t>
+    <t>PROJETO WI-FI NA PRACAATENDIMENTO DA COMUNIDADE LOCAL.</t>
+  </si>
+  <si>
+    <t>EDUARDO BRAIDE</t>
+  </si>
+  <si>
+    <t>JOSE MEDEIROS.</t>
+  </si>
+  <si>
+    <t>EDUARDO BRAIDE.</t>
   </si>
   <si>
     <t>WLADIMIR GAROTINHO</t>
@@ -388,55 +256,40 @@
     <t>PARLAMENTAR</t>
   </si>
   <si>
+    <t>WI-FI NA</t>
+  </si>
+  <si>
     <t>ASP</t>
   </si>
   <si>
-    <t>DOGIL CUTRIM.</t>
-  </si>
-  <si>
     <t>MINICON</t>
   </si>
   <si>
-    <t>DOJOAQUIM PASSARINHO</t>
-  </si>
-  <si>
     <t>JOAQUIM PASSARINHO</t>
   </si>
   <si>
     <t>SESAI</t>
   </si>
   <si>
-    <t>DOGIL CUTRIM</t>
-  </si>
-  <si>
-    <t>DOJOAO DANIEL</t>
-  </si>
-  <si>
-    <t>DAMARIANA CARVALHO</t>
+    <t>GIL CUTRIM</t>
   </si>
   <si>
     <t>SESAI.</t>
   </si>
   <si>
-    <t xml:space="preserve"> MINISTERIO DA SAUDE</t>
-  </si>
-  <si>
     <t>MMA</t>
   </si>
   <si>
-    <t xml:space="preserve"> INTERNET</t>
-  </si>
-  <si>
-    <t>DOEVAIR DE MELO.</t>
-  </si>
-  <si>
-    <t>DOTORINO MARQUES</t>
-  </si>
-  <si>
-    <t>SOLICITACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AMIZADE</t>
+    <t>INTERNET</t>
+  </si>
+  <si>
+    <t>EVAIR DE MELO.</t>
+  </si>
+  <si>
+    <t>TORINO MARQUES</t>
+  </si>
+  <si>
+    <t>AMIZADE</t>
   </si>
   <si>
     <t>INTERNET SOLICITADA</t>
@@ -445,55 +298,40 @@
     <t>SOCILITACAO DE INTERNET</t>
   </si>
   <si>
-    <t xml:space="preserve">DOTORINO MARQUES </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INTENET</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INTERNET </t>
-  </si>
-  <si>
-    <t>DOEVAIR DE MELO</t>
-  </si>
-  <si>
-    <t>DOEVAIR DE MELLO.</t>
-  </si>
-  <si>
-    <t>DOEVAIR DE MELO, O PONTO MUDOU DE MUNICIPIO,POR ISSO ESTAMOS ALTERARANDO.E-MAIL NO DIA 01-03-2021</t>
-  </si>
-  <si>
-    <t>DOEVAIR DE MELO, O PONTO MUDOU DE MUNICIPIO, POR ISSO ESTAMOS ALTERARANDO.E-MAIL NO DIA 01-03-2021</t>
-  </si>
-  <si>
-    <t>DE. EVAIR DE MELO.</t>
-  </si>
-  <si>
-    <t>DOEVAIR DE MELLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONTO GESAC </t>
-  </si>
-  <si>
-    <t>DOCELSO SABINO.</t>
-  </si>
-  <si>
-    <t>DOJOAO DANIEL.</t>
-  </si>
-  <si>
-    <t>DOSERGIO SOUZA.</t>
+    <t>INTENET</t>
+  </si>
+  <si>
+    <t>EVAIR DE MELLO.</t>
+  </si>
+  <si>
+    <t>EVAIR DE MELO, O PONTO MUDOU DE MUNICIPIO,POR ISSO ESTAMOS ALTERARANDO.E-MAIL NO DIA 01-03-2021</t>
+  </si>
+  <si>
+    <t>EVAIR DE MELO, O PONTO MUDOU DE MUNICIPIO, POR ISSO ESTAMOS ALTERARANDO.E-MAIL NO DIA 01-03-2021</t>
+  </si>
+  <si>
+    <t>EVAIR DE MELLO</t>
+  </si>
+  <si>
+    <t>PONTO GESAC</t>
+  </si>
+  <si>
+    <t>JOAO DANIEL.</t>
+  </si>
+  <si>
+    <t>SERGIO SOUZA.</t>
   </si>
   <si>
     <t>MINFRA</t>
   </si>
   <si>
-    <t>DOSIDNEY LEITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MINISTERIO DA SAUDE PARA AJUDAR OS SERVICOS DURANTE A PANDEMIA DE COVID-19.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MINISTERIO DA SAUDE PARA AJUDAR NOS SERVICOS DURANTE A PANDEMIA DE COVID-19.</t>
+    <t>SIDNEY LEITE</t>
+  </si>
+  <si>
+    <t>MINISTERIO DA SAUDEAJUDAR OS SERVICOSA PANDEMIA DE COVID-19.</t>
+  </si>
+  <si>
+    <t>MINISTERIO DA SAUDEAJUDAR NOS SERVICOSA PANDEMIA DE COVID-19.</t>
   </si>
   <si>
     <t>GABINETE DO MINISTRO.</t>
@@ -511,15 +349,12 @@
     <t>ATENDIMENTO EMERGENCIAL AO COVID.</t>
   </si>
   <si>
-    <t xml:space="preserve">ATENDIMENTO EMERGENCIAL COVID. </t>
+    <t>ATENDIMENTO EMERGENCIAL COVID.</t>
   </si>
   <si>
     <t>VIA GABINETE DO MINSITRO.</t>
   </si>
   <si>
-    <t xml:space="preserve">VIA GABINETE DO MINISTRO. </t>
-  </si>
-  <si>
     <t>VIA GABINETE DO MINISTRO.</t>
   </si>
   <si>
@@ -535,7 +370,7 @@
     <t>ENCAMINHA VAI GABINETE DO MINISTRO.</t>
   </si>
   <si>
-    <t>DOMARCIO JERRY.</t>
+    <t>MARCIO JERRY.</t>
   </si>
   <si>
     <t>SERGIO SOUZA</t>
@@ -556,7 +391,7 @@
     <t>PREFEITO MUNICIPAL JOAO MARIA.</t>
   </si>
   <si>
-    <t xml:space="preserve">PREFEITO MUNICIPAL MIGUEL CABRAL </t>
+    <t>PREFEITO MUNICIPAL MIGUEL CABRAL</t>
   </si>
   <si>
     <t>PREFEITO MUNICIPAL JOAO BASILIO.</t>
@@ -565,9 +400,6 @@
     <t>PREFEITO MUNICIPAL ALCELIO FERNANDES.</t>
   </si>
   <si>
-    <t>PREFEITO MUNICIPAL MIGUEL CABRAL</t>
-  </si>
-  <si>
     <t>PREFEITO MUNICIPAL UADY ANTONIO.</t>
   </si>
   <si>
@@ -577,9 +409,6 @@
     <t>PREFEITA MUNICIPAL JUSSARA SALES.</t>
   </si>
   <si>
-    <t xml:space="preserve">PREFEITA MUNICIPAL JUSSARA SALES. </t>
-  </si>
-  <si>
     <t>PREFEITO MUNICIPAL JOSE ARNOR.</t>
   </si>
   <si>
@@ -616,9 +445,6 @@
     <t>RECURSO COVID-19</t>
   </si>
   <si>
-    <t>ATENDIMENTO EMERGENCIAL COVID.</t>
-  </si>
-  <si>
     <t>COVID</t>
   </si>
   <si>
@@ -634,10 +460,7 @@
     <t>ANDRE DE PAULA</t>
   </si>
   <si>
-    <t>STEFANO AGUIAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUGO LEAL </t>
+    <t>HUGO LEAL</t>
   </si>
   <si>
     <t>RICARDO GUIDI</t>
@@ -670,9 +493,6 @@
     <t>JULIO CESAR</t>
   </si>
   <si>
-    <t xml:space="preserve">JULIO CESAR </t>
-  </si>
-  <si>
     <t>HAROLDO CARHEDRAL</t>
   </si>
   <si>
@@ -685,12 +505,6 @@
     <t>CEZINHA DE MADUREIRA</t>
   </si>
   <si>
-    <t xml:space="preserve">ANDRE DE PAULA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEXANDRE SERFIOTIS </t>
-  </si>
-  <si>
     <t>REINHOLD STEPHANES  -5221</t>
   </si>
   <si>
@@ -703,100 +517,82 @@
     <t>FRANCISCO JUNIOR</t>
   </si>
   <si>
-    <t xml:space="preserve">NEUCIMAR FRAGA </t>
-  </si>
-  <si>
     <t>RIO GRANDE DO NORTE.</t>
   </si>
   <si>
     <t>PEDIDOS DO RIO GRANDE DO NORTE.</t>
   </si>
   <si>
-    <t>DONEUCIMAR FRAGA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDOS DO RIO GRANDE DO NORTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIO GRANDE NORTE </t>
-  </si>
-  <si>
-    <t>HUGO LEAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDILAZIO JUNIOR </t>
+    <t>NEUCIMAR FRAGA.</t>
+  </si>
+  <si>
+    <t>PEDIDOS DO RIO GRANDE DO NORTE</t>
+  </si>
+  <si>
+    <t>RIO GRANDE NORTE</t>
   </si>
   <si>
     <t>EDILAZIO JUNIOR</t>
   </si>
   <si>
-    <t xml:space="preserve">PEDIDOS DO RIO GRANDE NORTE </t>
+    <t>PEDIDOS DO RIO GRANDE NORTE</t>
   </si>
   <si>
     <t>DIEGO ANDRADE</t>
   </si>
   <si>
-    <t xml:space="preserve">DIEGO ANDRADE </t>
-  </si>
-  <si>
     <t>ANTONIO BRITO</t>
   </si>
   <si>
-    <t xml:space="preserve">ANTONIO BRITO </t>
-  </si>
-  <si>
-    <t>DOVERMELHO.</t>
-  </si>
-  <si>
-    <t>DOWLADIMIR GAROTINHO.</t>
-  </si>
-  <si>
-    <t>DOSIDNEY LEITE.</t>
-  </si>
-  <si>
-    <t>DOSERGIO BRITO.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIO GRANDE DO NORTE </t>
-  </si>
-  <si>
-    <t>DESERGIO BRITO.</t>
-  </si>
-  <si>
-    <t>DODARCI DE MATOS PSD.</t>
-  </si>
-  <si>
-    <t>DODOMINGOS NETO PSD.</t>
-  </si>
-  <si>
-    <t>DODOMINGOS NETO PSD</t>
-  </si>
-  <si>
-    <t>DODELEGADO EDER MAURO PSD</t>
-  </si>
-  <si>
-    <t>DOEDER MAURO PSD.</t>
-  </si>
-  <si>
-    <t>DOPAULO MAGALHAES PSD</t>
+    <t>VERMELHO.</t>
+  </si>
+  <si>
+    <t>WLADIMIR GAROTINHO.</t>
+  </si>
+  <si>
+    <t>SIDNEY LEITE.</t>
+  </si>
+  <si>
+    <t>SERGIO BRITO.</t>
+  </si>
+  <si>
+    <t>RIO GRANDE DO NORTE</t>
+  </si>
+  <si>
+    <t>DARCI DE MATOS PSD.</t>
+  </si>
+  <si>
+    <t>DOMINGOS NETO PSD.</t>
+  </si>
+  <si>
+    <t>DOMINGOS NETO PSD</t>
+  </si>
+  <si>
+    <t>DELEGADO EDER MAURO PSD</t>
+  </si>
+  <si>
+    <t>EDER MAURO PSD.</t>
+  </si>
+  <si>
+    <t>PAULO MAGALHAES PSD</t>
   </si>
   <si>
     <t>PRESIDENTE JOSE JACIEL ALMEIDA DA SILVA.</t>
   </si>
   <si>
-    <t>DOSARGENTO FAHUR.</t>
-  </si>
-  <si>
-    <t>DONEY LEPREVOST.</t>
-  </si>
-  <si>
-    <t>DOCHARLES FERNANDES.</t>
-  </si>
-  <si>
-    <t>DOPEDRO AUGUSTO.</t>
-  </si>
-  <si>
-    <t>DOEXPEDITO NETTO.</t>
+    <t>SARGENTO FAHUR.</t>
+  </si>
+  <si>
+    <t>NEY LEPREVOST.</t>
+  </si>
+  <si>
+    <t>CHARLES FERNANDES.</t>
+  </si>
+  <si>
+    <t>PEDRO AUGUSTO.</t>
+  </si>
+  <si>
+    <t>EXPEDITO NETTO.</t>
   </si>
   <si>
     <t>ESTADO DE RIO GRANDE DO NORTE.</t>
@@ -805,36 +601,27 @@
     <t>ESTADO DO RIO GRANDE DO NORTE.</t>
   </si>
   <si>
-    <t>EVAIR DE MELO.</t>
-  </si>
-  <si>
-    <t>DOREINHOLD STEPHANES.</t>
-  </si>
-  <si>
-    <t>DOMISAEL VARELLA.</t>
-  </si>
-  <si>
-    <t>DOJOAQUIM PASSARINHO.</t>
-  </si>
-  <si>
-    <t>DAFLODELIS.</t>
-  </si>
-  <si>
-    <t>DODOMINGOS NETO.</t>
+    <t>REINHOLD STEPHANES.</t>
+  </si>
+  <si>
+    <t>MISAEL VARELLA.</t>
+  </si>
+  <si>
+    <t>JOAQUIM PASSARINHO.</t>
+  </si>
+  <si>
+    <t>FLODELIS.</t>
+  </si>
+  <si>
+    <t>DOMINGOS NETO.</t>
   </si>
   <si>
     <t>MINISTRO.</t>
   </si>
   <si>
-    <t xml:space="preserve">MINISTRO. </t>
-  </si>
-  <si>
     <t>MJ</t>
   </si>
   <si>
-    <t xml:space="preserve">PEDRO AUGUSTO PALARETI </t>
-  </si>
-  <si>
     <t>SEBRAE</t>
   </si>
   <si>
@@ -847,22 +634,16 @@
     <t>SERGIO SOUSA</t>
   </si>
   <si>
-    <t>MINISTRO DAS COMUNICACOES</t>
-  </si>
-  <si>
     <t>PREFEITO CLETSON RIVALDO</t>
   </si>
   <si>
     <t>SERGIO SOUA</t>
   </si>
   <si>
-    <t xml:space="preserve">O PONTO FOI  MJ E ESTA SUBSTITUINDO O PP 57202, QUE FOI DESATIVADO. </t>
-  </si>
-  <si>
-    <t>PONTO WI-FI BRASIL SOLICITADO.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINISTERIO DA JUSTICA </t>
+    <t>O PONTO FOI  MJ E ESTA SUBSTITUINDO O PP 57202, QUE FOI DESATIVADO.</t>
+  </si>
+  <si>
+    <t>PONTO WI-FI BRASIL .</t>
   </si>
   <si>
     <t>MINISTERIO DA JUSTILA</t>
@@ -874,61 +655,37 @@
     <t>PREFEITA MUNICIPAL ANDREZZA BRASIL SOUTO.</t>
   </si>
   <si>
-    <t xml:space="preserve">DAJOENIA WAPCHAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PELAJOENIA WAPCHAN </t>
+    <t>JOENIA WAPCHAN</t>
   </si>
   <si>
     <t>WIFI BRASIL MINISTERIO DAS COMUNICACOES</t>
   </si>
   <si>
-    <t xml:space="preserve">MINISTERIO DA COMUNICACOES </t>
+    <t>MINISTERIO DA COMUNICACOES</t>
   </si>
   <si>
     <t>DR. FREDERICO</t>
   </si>
   <si>
-    <t xml:space="preserve">IGOR TIMO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIMO IGOR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUARDO BARBOSA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BETO ROSA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEUR  LOMANTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDRE JANONES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JANONES </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GABINETE DO MINISTRO.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MCOM</t>
+    <t>TIMO IGOR</t>
+  </si>
+  <si>
+    <t>BETO ROSA</t>
+  </si>
+  <si>
+    <t>LEUR  LOMANTO</t>
+  </si>
+  <si>
+    <t>JANONES</t>
   </si>
   <si>
     <t>MCOM.</t>
   </si>
   <si>
-    <t xml:space="preserve">ADOR CONFUCIO MOURA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADOR CONFUCIO  MOURA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADOR CONFUNCIO MOURA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GABINETE DO MINISTRO. </t>
+    <t>ADOR CONFUCIO  MOURA</t>
+  </si>
+  <si>
+    <t>ADOR CONFUNCIO MOURA</t>
   </si>
   <si>
     <t>EROS  BIONDINI</t>
@@ -937,12 +694,6 @@
     <t>DEP EVAIR DE MELO</t>
   </si>
   <si>
-    <t xml:space="preserve">EVAIR DE MELO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOSILAS CAMARA </t>
-  </si>
-  <si>
     <t>FAVIA ARRUDA</t>
   </si>
   <si>
@@ -952,42 +703,24 @@
     <t>ADOR RODRIGO CUNHA.</t>
   </si>
   <si>
-    <t xml:space="preserve">ADOR RODRIGO CUNHA </t>
-  </si>
-  <si>
     <t>ADOR RODRIGO CUNHAADOR RODRIGO CUNHA</t>
   </si>
   <si>
-    <t xml:space="preserve">SUBSTITUICAO POR OUTRO PONTO DO MEC QUE FOI CANCELADO. </t>
+    <t>SUBSTITUICAO POR OUTRO PONTO DO MEC QUE FOI CANCELADO.</t>
   </si>
   <si>
     <t>MEC</t>
   </si>
   <si>
-    <t xml:space="preserve"> MINISTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOENIA WAPICHANA </t>
-  </si>
-  <si>
     <t>ADOR CARLOS VIANA</t>
   </si>
   <si>
-    <t xml:space="preserve">ADOR CARLOS VIANA </t>
-  </si>
-  <si>
     <t>EMENDA PARLAMENTAR</t>
   </si>
   <si>
     <t>MARA ROCHA.</t>
   </si>
   <si>
-    <t>SOLICITACAOEVAIR DE MELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAPA </t>
-  </si>
-  <si>
     <t>ADOR RODRIGO PACHECO</t>
   </si>
   <si>
@@ -1012,57 +745,24 @@
     <t>DARCIOVIEIRA1810@HOTMAIL.COM</t>
   </si>
   <si>
-    <t>VILSON DA FETAEMG</t>
-  </si>
-  <si>
-    <t>JULIO DELGADO</t>
-  </si>
-  <si>
-    <t>NEWTON CARDOSO</t>
-  </si>
-  <si>
     <t>CHALLES EVANGELISTA</t>
   </si>
   <si>
-    <t>ZE VITOR</t>
-  </si>
-  <si>
     <t>PAULO ABI</t>
   </si>
   <si>
     <t>NAPOLEBERTOADV@HOTMAIL.COM</t>
   </si>
   <si>
-    <t>GILBERTO ABRAMO</t>
-  </si>
-  <si>
-    <t>DELEGADO MARCELO FREITAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENSIPAM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA VITORIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DP. FEDERAL DA VITORIA </t>
-  </si>
-  <si>
-    <t>MARCELO ARO</t>
+    <t>DP. FEDERAL DA VITORIA</t>
   </si>
   <si>
     <t>DEP FEDERAL MARCELO ARO</t>
   </si>
   <si>
-    <t>LAURIETE</t>
-  </si>
-  <si>
     <t>DEP FEDERAL LAURIETE</t>
   </si>
   <si>
-    <t xml:space="preserve">SILAS CAMARA </t>
-  </si>
-  <si>
     <t>MARCO BERTAIOLLI</t>
   </si>
   <si>
@@ -1093,9 +793,6 @@
     <t>FRED COSTA</t>
   </si>
   <si>
-    <t xml:space="preserve">MINISTRO DAS COMUNICACOES </t>
-  </si>
-  <si>
     <t>MINISTRO DA COMUNICACAO</t>
   </si>
   <si>
@@ -1103,9 +800,6 @@
   </si>
   <si>
     <t>BANCADA-MG.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINISTERIO DAS COMUNICACOES. </t>
   </si>
   <si>
     <t>PADRE VALDO  OMENA</t>
@@ -1475,7 +1169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F365"/>
+  <dimension ref="A1:F263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2190,16 +1884,13 @@
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2207,7 +1898,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2215,7 +1906,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2223,7 +1914,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2231,7 +1922,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2239,7 +1930,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2247,7 +1938,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2255,7 +1946,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2263,7 +1954,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2271,7 +1962,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2279,7 +1970,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2287,7 +1978,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2295,7 +1986,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2303,7 +1994,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2311,7 +2002,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2319,7 +2010,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2327,7 +2018,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2335,7 +2026,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2343,7 +2034,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2351,7 +2042,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2359,7 +2050,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2367,7 +2058,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2375,7 +2066,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2383,7 +2074,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2391,7 +2082,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2399,7 +2090,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2407,7 +2098,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2415,7 +2106,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2423,7 +2114,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2431,7 +2122,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2439,7 +2130,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2447,7 +2138,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2455,7 +2146,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2463,7 +2154,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2471,7 +2162,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2479,7 +2170,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2487,7 +2178,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2495,7 +2186,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2503,7 +2194,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2511,7 +2202,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2519,7 +2210,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2527,7 +2218,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2535,7 +2226,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2543,7 +2234,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2551,7 +2242,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2559,7 +2250,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2567,7 +2258,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2575,7 +2266,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2583,7 +2274,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2591,7 +2282,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2599,7 +2290,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2607,7 +2298,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2615,7 +2306,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2623,7 +2314,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2631,7 +2322,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2639,7 +2330,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2647,7 +2338,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2655,7 +2346,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2663,7 +2354,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2671,7 +2362,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2679,7 +2370,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2687,7 +2378,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2695,7 +2386,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2703,7 +2394,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2711,7 +2402,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2719,13 +2410,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
+      <c r="B155" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
@@ -3589,822 +3283,6 @@
       </c>
       <c r="B263" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="1">
-        <v>262</v>
-      </c>
-      <c r="B264" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="1">
-        <v>263</v>
-      </c>
-      <c r="B265" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="1">
-        <v>264</v>
-      </c>
-      <c r="B266" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="B267" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
-      <c r="B268" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="1">
-        <v>267</v>
-      </c>
-      <c r="B269" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="1">
-        <v>268</v>
-      </c>
-      <c r="B270" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="1">
-        <v>269</v>
-      </c>
-      <c r="B271" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="1">
-        <v>270</v>
-      </c>
-      <c r="B272" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="1">
-        <v>271</v>
-      </c>
-      <c r="B273" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="1">
-        <v>272</v>
-      </c>
-      <c r="B274" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="1">
-        <v>273</v>
-      </c>
-      <c r="B275" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="1">
-        <v>274</v>
-      </c>
-      <c r="B276" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="1">
-        <v>275</v>
-      </c>
-      <c r="B277" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="1">
-        <v>276</v>
-      </c>
-      <c r="B278" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="1">
-        <v>277</v>
-      </c>
-      <c r="B279" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="1">
-        <v>278</v>
-      </c>
-      <c r="B280" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="1">
-        <v>279</v>
-      </c>
-      <c r="B281" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="1">
-        <v>280</v>
-      </c>
-      <c r="B282" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="1">
-        <v>281</v>
-      </c>
-      <c r="B283" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="1">
-        <v>282</v>
-      </c>
-      <c r="B284" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="1">
-        <v>283</v>
-      </c>
-      <c r="B285" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="1">
-        <v>284</v>
-      </c>
-      <c r="B286" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="1">
-        <v>285</v>
-      </c>
-      <c r="B287" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="1">
-        <v>286</v>
-      </c>
-      <c r="B288" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="1">
-        <v>287</v>
-      </c>
-      <c r="B289" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="1">
-        <v>288</v>
-      </c>
-      <c r="B290" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="1">
-        <v>289</v>
-      </c>
-      <c r="B291" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="1">
-        <v>290</v>
-      </c>
-      <c r="B292" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="1">
-        <v>291</v>
-      </c>
-      <c r="B293" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="1">
-        <v>292</v>
-      </c>
-      <c r="B294" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="1">
-        <v>293</v>
-      </c>
-      <c r="B295" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="1">
-        <v>294</v>
-      </c>
-      <c r="B296" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="1">
-        <v>295</v>
-      </c>
-      <c r="B297" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="1">
-        <v>296</v>
-      </c>
-      <c r="B298" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="1">
-        <v>297</v>
-      </c>
-      <c r="B299" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="1">
-        <v>298</v>
-      </c>
-      <c r="B300" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="1">
-        <v>299</v>
-      </c>
-      <c r="B301" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="1">
-        <v>300</v>
-      </c>
-      <c r="B302" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="1">
-        <v>301</v>
-      </c>
-      <c r="B303" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="1">
-        <v>302</v>
-      </c>
-      <c r="B304" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="1">
-        <v>303</v>
-      </c>
-      <c r="B305" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="1">
-        <v>304</v>
-      </c>
-      <c r="B306" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="1">
-        <v>305</v>
-      </c>
-      <c r="B307" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="1">
-        <v>306</v>
-      </c>
-      <c r="B308" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="1">
-        <v>307</v>
-      </c>
-      <c r="B309" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="1">
-        <v>308</v>
-      </c>
-      <c r="B310" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="1">
-        <v>309</v>
-      </c>
-      <c r="B311" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="1">
-        <v>310</v>
-      </c>
-      <c r="B312" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="1">
-        <v>311</v>
-      </c>
-      <c r="B313" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="1">
-        <v>312</v>
-      </c>
-      <c r="B314" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="1">
-        <v>313</v>
-      </c>
-      <c r="B315" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="1">
-        <v>314</v>
-      </c>
-      <c r="B316" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="1">
-        <v>315</v>
-      </c>
-      <c r="B317" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="1">
-        <v>316</v>
-      </c>
-      <c r="B318" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="1">
-        <v>317</v>
-      </c>
-      <c r="B319" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="1">
-        <v>318</v>
-      </c>
-      <c r="B320" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="1">
-        <v>319</v>
-      </c>
-      <c r="B321" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="1">
-        <v>320</v>
-      </c>
-      <c r="B322" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="1">
-        <v>321</v>
-      </c>
-      <c r="B323" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="1">
-        <v>322</v>
-      </c>
-      <c r="B324" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="1">
-        <v>323</v>
-      </c>
-      <c r="B325" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="1">
-        <v>324</v>
-      </c>
-      <c r="B326" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="1">
-        <v>325</v>
-      </c>
-      <c r="B327" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" s="1">
-        <v>326</v>
-      </c>
-      <c r="B328" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="1">
-        <v>327</v>
-      </c>
-      <c r="B329" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="1">
-        <v>328</v>
-      </c>
-      <c r="B330" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="1">
-        <v>329</v>
-      </c>
-      <c r="B331" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
-      <c r="A332" s="1">
-        <v>330</v>
-      </c>
-      <c r="B332" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" s="1">
-        <v>331</v>
-      </c>
-      <c r="B333" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="1">
-        <v>332</v>
-      </c>
-      <c r="B334" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" s="1">
-        <v>333</v>
-      </c>
-      <c r="B335" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" s="1">
-        <v>334</v>
-      </c>
-      <c r="B336" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="1">
-        <v>335</v>
-      </c>
-      <c r="B337" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338" s="1">
-        <v>336</v>
-      </c>
-      <c r="B338" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339" s="1">
-        <v>337</v>
-      </c>
-      <c r="B339" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
-      <c r="A340" s="1">
-        <v>338</v>
-      </c>
-      <c r="B340" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341" s="1">
-        <v>339</v>
-      </c>
-      <c r="B341" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" s="1">
-        <v>340</v>
-      </c>
-      <c r="B342" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343" s="1">
-        <v>341</v>
-      </c>
-      <c r="B343" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344" s="1">
-        <v>342</v>
-      </c>
-      <c r="B344" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345" s="1">
-        <v>343</v>
-      </c>
-      <c r="B345" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346" s="1">
-        <v>344</v>
-      </c>
-      <c r="B346" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" s="1">
-        <v>345</v>
-      </c>
-      <c r="B347" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" s="1">
-        <v>346</v>
-      </c>
-      <c r="B348" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349" s="1">
-        <v>347</v>
-      </c>
-      <c r="B349" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" s="1">
-        <v>348</v>
-      </c>
-      <c r="B350" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2">
-      <c r="A351" s="1">
-        <v>349</v>
-      </c>
-      <c r="B351" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2">
-      <c r="A352" s="1">
-        <v>350</v>
-      </c>
-      <c r="B352" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" s="1">
-        <v>351</v>
-      </c>
-      <c r="B353" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354" s="1">
-        <v>352</v>
-      </c>
-      <c r="B354" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="A355" s="1">
-        <v>353</v>
-      </c>
-      <c r="B355" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356" s="1">
-        <v>354</v>
-      </c>
-      <c r="B356" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" s="1">
-        <v>355</v>
-      </c>
-      <c r="B357" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" s="1">
-        <v>356</v>
-      </c>
-      <c r="B358" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359" s="1">
-        <v>357</v>
-      </c>
-      <c r="B359" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="A360" s="1">
-        <v>358</v>
-      </c>
-      <c r="B360" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" s="1">
-        <v>359</v>
-      </c>
-      <c r="B361" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362" s="1">
-        <v>360</v>
-      </c>
-      <c r="B362" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2">
-      <c r="A363" s="1">
-        <v>361</v>
-      </c>
-      <c r="B363" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
-      <c r="A364" s="1">
-        <v>362</v>
-      </c>
-      <c r="B364" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365" s="1">
-        <v>363</v>
-      </c>
-      <c r="B365" t="s">
-        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/trash/props_with_no_key.xlsx
+++ b/trash/props_with_no_key.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
   <si>
     <t>prop_nokey</t>
   </si>
@@ -164,12 +164,6 @@
   </si>
   <si>
     <t>GASTAO VIEIRA</t>
-  </si>
-  <si>
-    <t>CABO JUNIO AMARAL  INDIVIDUAL</t>
-  </si>
-  <si>
-    <t>LUIS TIBE  INDIVIDUAL</t>
   </si>
   <si>
     <t>MIGRACAO</t>
@@ -1169,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F263"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1868,22 +1862,22 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
@@ -3267,22 +3261,6 @@
       </c>
       <c r="B261" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="1">
-        <v>260</v>
-      </c>
-      <c r="B262" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="1">
-        <v>261</v>
-      </c>
-      <c r="B263" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/trash/props_with_no_key.xlsx
+++ b/trash/props_with_no_key.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
   <si>
     <t>prop_nokey</t>
   </si>
@@ -61,18 +61,12 @@
     <t>EUCLYDES PETTER</t>
   </si>
   <si>
-    <t>AUREA CAROLINA</t>
-  </si>
-  <si>
     <t>JULIO DELGADO</t>
   </si>
   <si>
     <t>EROS BIONDINI</t>
   </si>
   <si>
-    <t>BILAC PINTO</t>
-  </si>
-  <si>
     <t>EDUARDO BARBOSA</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>IGOR TIMO</t>
   </si>
   <si>
-    <t>PATRUS ANANIAS</t>
-  </si>
-  <si>
     <t>FREDERICO</t>
   </si>
   <si>
@@ -112,18 +103,12 @@
     <t>VILSON DA FETAEMG</t>
   </si>
   <si>
-    <t>NEWTON CARDOSO</t>
-  </si>
-  <si>
     <t>ZE SILVA</t>
   </si>
   <si>
     <t>LINCOLN PORTELA</t>
   </si>
   <si>
-    <t>AECIO NEVES</t>
-  </si>
-  <si>
     <t>CHARLES EVANGELISTA</t>
   </si>
   <si>
@@ -133,34 +118,19 @@
     <t>DELEGADO MARCELO FREITAS</t>
   </si>
   <si>
-    <t>STEFANO AGUIAR</t>
-  </si>
-  <si>
     <t>WELITON PRADO</t>
   </si>
   <si>
-    <t>FRANCO CARTAFINA</t>
-  </si>
-  <si>
     <t>PAULO ABI ACKEL</t>
   </si>
   <si>
     <t>MARCELO ARO</t>
   </si>
   <si>
-    <t>ROGERIO CORREIA</t>
-  </si>
-  <si>
     <t>PADRE JOAO</t>
   </si>
   <si>
-    <t>LAURIETE</t>
-  </si>
-  <si>
     <t>AMARO NETO</t>
-  </si>
-  <si>
-    <t>DA VITORIA</t>
   </si>
   <si>
     <t>GASTAO VIEIRA</t>
@@ -1163,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F261"/>
+  <dimension ref="A1:F251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1782,16 +1752,13 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1799,7 +1766,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1807,7 +1774,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1815,7 +1782,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1823,7 +1790,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1831,7 +1798,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1839,7 +1806,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1847,7 +1814,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1855,13 +1822,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
@@ -3181,86 +3151,6 @@
       </c>
       <c r="B251" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/trash/props_with_no_key.xlsx
+++ b/trash/props_with_no_key.xlsx
@@ -14,21 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
-  <si>
-    <t>prop_nokey</t>
-  </si>
-  <si>
-    <t>prop_pk1</t>
-  </si>
-  <si>
-    <t>orgao</t>
-  </si>
-  <si>
-    <t>uf</t>
-  </si>
-  <si>
-    <t>partido</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+  <si>
+    <t>proponente</t>
   </si>
   <si>
     <t>BANCADA-ALAGOAS</t>
@@ -1133,147 +1121,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F251"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1281,7 +1257,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1289,7 +1265,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1297,7 +1273,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1305,7 +1281,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1313,7 +1289,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1321,7 +1297,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1329,7 +1305,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1337,7 +1313,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1345,7 +1321,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1353,7 +1329,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1361,7 +1337,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1369,7 +1345,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1377,7 +1353,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1385,7 +1361,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1393,7 +1369,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1401,7 +1377,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1409,7 +1385,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1417,7 +1393,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1425,7 +1401,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1433,7 +1409,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1441,7 +1417,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1449,7 +1425,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1457,7 +1433,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1465,7 +1441,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1473,7 +1449,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1481,7 +1457,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1489,7 +1465,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1497,7 +1473,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1505,7 +1481,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1513,7 +1489,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1521,7 +1497,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1529,7 +1505,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1537,7 +1513,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1545,7 +1521,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1553,7 +1529,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1561,7 +1537,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1569,7 +1545,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1577,7 +1553,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1585,7 +1561,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1593,7 +1569,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1601,7 +1577,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1609,7 +1585,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1617,7 +1593,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1625,7 +1601,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1633,7 +1609,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1641,7 +1617,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1649,7 +1625,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1657,7 +1633,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1665,7 +1641,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1673,7 +1649,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1681,7 +1657,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1689,7 +1665,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1697,7 +1673,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1705,7 +1681,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1713,7 +1689,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1721,7 +1697,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1729,7 +1705,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1737,7 +1713,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1745,7 +1721,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1758,7 +1734,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1766,7 +1742,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1774,7 +1750,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1782,7 +1758,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1790,7 +1766,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1798,7 +1774,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1806,7 +1782,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1814,7 +1790,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1822,7 +1798,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1830,7 +1806,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1838,7 +1814,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1846,7 +1822,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1854,7 +1830,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1862,7 +1838,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1870,7 +1846,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1878,7 +1854,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1886,7 +1862,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1894,7 +1870,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1902,7 +1878,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1910,7 +1886,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1918,7 +1894,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1926,7 +1902,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1934,7 +1910,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1942,7 +1918,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1950,7 +1926,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1958,7 +1934,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1966,7 +1942,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1974,7 +1950,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1982,7 +1958,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1990,7 +1966,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1998,7 +1974,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2006,7 +1982,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2014,7 +1990,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2022,7 +1998,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2030,7 +2006,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2038,7 +2014,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2046,7 +2022,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2054,7 +2030,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2062,7 +2038,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2070,7 +2046,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2078,7 +2054,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2086,7 +2062,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2094,7 +2070,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2102,7 +2078,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2110,7 +2086,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2118,7 +2094,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2126,7 +2102,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2134,7 +2110,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2142,7 +2118,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2150,7 +2126,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2158,7 +2134,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2166,7 +2142,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2174,7 +2150,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2182,7 +2158,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2190,7 +2166,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2198,7 +2174,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2206,7 +2182,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2214,7 +2190,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2222,7 +2198,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2230,7 +2206,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2238,7 +2214,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2246,7 +2222,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2254,7 +2230,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2262,7 +2238,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2270,7 +2246,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2278,7 +2254,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2286,7 +2262,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2294,7 +2270,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2302,7 +2278,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2310,7 +2286,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2318,7 +2294,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2326,7 +2302,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2334,7 +2310,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2342,7 +2318,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2350,7 +2326,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2358,7 +2334,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2366,7 +2342,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2374,7 +2350,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2382,7 +2358,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2390,7 +2366,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2398,7 +2374,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2406,7 +2382,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2414,7 +2390,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2422,7 +2398,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2430,7 +2406,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2438,7 +2414,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2446,7 +2422,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2454,7 +2430,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2462,7 +2438,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2470,7 +2446,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2478,7 +2454,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2486,7 +2462,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2494,7 +2470,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2502,7 +2478,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2510,7 +2486,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2518,7 +2494,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2526,7 +2502,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2534,7 +2510,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2542,7 +2518,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2550,7 +2526,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2558,7 +2534,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2566,7 +2542,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2574,7 +2550,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2582,7 +2558,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2590,7 +2566,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2598,7 +2574,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2606,7 +2582,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2614,7 +2590,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2622,7 +2598,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2630,7 +2606,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2638,7 +2614,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2646,7 +2622,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2654,7 +2630,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2662,7 +2638,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2670,7 +2646,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2678,7 +2654,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2686,7 +2662,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2694,7 +2670,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2702,7 +2678,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2710,7 +2686,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2718,7 +2694,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2726,7 +2702,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2734,7 +2710,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2742,7 +2718,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2750,7 +2726,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2758,7 +2734,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2766,7 +2742,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2774,7 +2750,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2782,7 +2758,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2790,7 +2766,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2798,7 +2774,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2806,7 +2782,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2814,7 +2790,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2822,7 +2798,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2830,7 +2806,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2838,7 +2814,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2846,7 +2822,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2854,7 +2830,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2862,7 +2838,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2870,7 +2846,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2878,7 +2854,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2886,7 +2862,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2894,7 +2870,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2902,7 +2878,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2910,7 +2886,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2918,7 +2894,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2926,7 +2902,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2934,7 +2910,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2942,7 +2918,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2950,7 +2926,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2958,7 +2934,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2966,7 +2942,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2974,7 +2950,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2982,7 +2958,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2990,7 +2966,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2998,7 +2974,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3006,7 +2982,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3014,7 +2990,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3022,7 +2998,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3030,7 +3006,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3038,7 +3014,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3046,7 +3022,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3054,7 +3030,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3062,7 +3038,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3070,7 +3046,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3078,7 +3054,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3086,7 +3062,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3094,7 +3070,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3102,7 +3078,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3110,7 +3086,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3118,7 +3094,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3126,7 +3102,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3134,7 +3110,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3142,7 +3118,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3150,7 +3126,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
